--- a/TrainingData/MiscFiles/DataFromLiterature.xlsx
+++ b/TrainingData/MiscFiles/DataFromLiterature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\TrainingData\MiscFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678148EA-11E1-47CB-ACC6-7B113F43AF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708515D-1BD4-42A1-BCDA-4F9D199B26CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35130" yWindow="3885" windowWidth="29010" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,8 +741,8 @@
         <v>5.9850000000000003</v>
       </c>
       <c r="F14">
-        <f>E14*10^-10</f>
-        <v>5.9850000000000005E-10</v>
+        <f>E14*10^-8</f>
+        <v>5.985000000000001E-8</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -766,8 +766,8 @@
         <v>6.0250000000000004</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F22" si="2">E15*10^-10</f>
-        <v>6.0250000000000004E-10</v>
+        <f t="shared" ref="F15:F22" si="2">E15*10^-8</f>
+        <v>6.025E-8</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>7.136E-10</v>
+        <v>7.1359999999999998E-8</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>7.2580000000000002E-10</v>
+        <v>7.2580000000000005E-8</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>8.1649999999999992E-10</v>
+        <v>8.1649999999999993E-8</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>9.2270000000000003E-10</v>
+        <v>9.2270000000000005E-8</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>9.3160000000000017E-10</v>
+        <v>9.3160000000000008E-8</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>1.0221E-9</v>
+        <v>1.0221E-7</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>1.0986000000000001E-9</v>
+        <v>1.0986000000000001E-7</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
